--- a/database/industries/kashi/kesave/balancesheet/yearly.xlsx
+++ b/database/industries/kashi/kesave/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kashi\kesave\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB6BF9C-E078-499E-8548-59209F820710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576BC324-822B-4808-8415-F0F872F8DD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کساوه-صنایع‌ کاشی‌ و سرامیک‌ سینا</t>
@@ -37,21 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -70,21 +55,6 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1393-04-21 (7)</t>
-  </si>
-  <si>
-    <t>1394-04-20 (7)</t>
-  </si>
-  <si>
-    <t>1395-03-26 (9)</t>
-  </si>
-  <si>
-    <t>1396-04-04 (10)</t>
-  </si>
-  <si>
-    <t>1397-04-10 (11)</t>
-  </si>
-  <si>
     <t>1398-04-19 (9)</t>
   </si>
   <si>
@@ -97,7 +67,7 @@
     <t>1401-04-26 (11)</t>
   </si>
   <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-10-28 (6)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -133,16 +103,16 @@
     <t>سرمایه گذاری در املاک</t>
   </si>
   <si>
+    <t>داراییهای ثابت مشهود</t>
+  </si>
+  <si>
+    <t>داراییهای نامشهود</t>
+  </si>
+  <si>
+    <t>پیش پرداخت های سرمایه ای</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>داراییهای ثابت مشهود</t>
-  </si>
-  <si>
-    <t>داراییهای نامشهود</t>
-  </si>
-  <si>
-    <t>پیش پرداخت های سرمایه ای</t>
   </si>
   <si>
     <t>سایر دارایی ها</t>
@@ -728,18 +698,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -747,13 +717,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -763,13 +728,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -779,13 +739,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -793,13 +748,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -809,13 +759,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -825,13 +770,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -839,13 +779,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -865,59 +800,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -925,15 +830,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -941,51 +841,31 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>24992</v>
+        <v>38675</v>
       </c>
       <c r="E12" s="15">
-        <v>43205</v>
+        <v>24018</v>
       </c>
       <c r="F12" s="15">
-        <v>31426</v>
+        <v>283532</v>
       </c>
       <c r="G12" s="15">
-        <v>15755</v>
+        <v>568772</v>
       </c>
       <c r="H12" s="15">
-        <v>47016</v>
-      </c>
-      <c r="I12" s="15">
-        <v>38675</v>
-      </c>
-      <c r="J12" s="15">
-        <v>24018</v>
-      </c>
-      <c r="K12" s="15">
-        <v>283532</v>
-      </c>
-      <c r="L12" s="15">
-        <v>568772</v>
-      </c>
-      <c r="M12" s="15">
         <v>292326</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
@@ -998,138 +878,78 @@
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>30288</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
-        <v>30288</v>
-      </c>
-      <c r="M13" s="11">
         <v>327044</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>141147</v>
+        <v>293120</v>
       </c>
       <c r="E14" s="15">
-        <v>180970</v>
+        <v>377995</v>
       </c>
       <c r="F14" s="15">
-        <v>167767</v>
+        <v>422223</v>
       </c>
       <c r="G14" s="15">
-        <v>249911</v>
+        <v>957350</v>
       </c>
       <c r="H14" s="15">
-        <v>202262</v>
-      </c>
-      <c r="I14" s="15">
-        <v>293120</v>
-      </c>
-      <c r="J14" s="15">
-        <v>377995</v>
-      </c>
-      <c r="K14" s="15">
-        <v>422223</v>
-      </c>
-      <c r="L14" s="15">
-        <v>957350</v>
-      </c>
-      <c r="M14" s="15">
         <v>2167830</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>231372</v>
+        <v>514052</v>
       </c>
       <c r="E15" s="11">
-        <v>371329</v>
+        <v>625963</v>
       </c>
       <c r="F15" s="11">
-        <v>505503</v>
+        <v>913969</v>
       </c>
       <c r="G15" s="11">
-        <v>589992</v>
+        <v>2138879</v>
       </c>
       <c r="H15" s="11">
-        <v>614495</v>
-      </c>
-      <c r="I15" s="11">
-        <v>514052</v>
-      </c>
-      <c r="J15" s="11">
-        <v>625963</v>
-      </c>
-      <c r="K15" s="11">
-        <v>913969</v>
-      </c>
-      <c r="L15" s="11">
-        <v>2138879</v>
-      </c>
-      <c r="M15" s="11">
         <v>2949582</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>43952</v>
+        <v>28652</v>
       </c>
       <c r="E16" s="15">
-        <v>76513</v>
+        <v>97241</v>
       </c>
       <c r="F16" s="15">
-        <v>45944</v>
+        <v>94168</v>
       </c>
       <c r="G16" s="15">
-        <v>11148</v>
+        <v>182436</v>
       </c>
       <c r="H16" s="15">
-        <v>29209</v>
-      </c>
-      <c r="I16" s="15">
-        <v>28652</v>
-      </c>
-      <c r="J16" s="15">
-        <v>97241</v>
-      </c>
-      <c r="K16" s="15">
-        <v>94168</v>
-      </c>
-      <c r="L16" s="15">
-        <v>182436</v>
-      </c>
-      <c r="M16" s="15">
         <v>88629</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1147,140 +967,80 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>441463</v>
+        <v>874499</v>
       </c>
       <c r="E18" s="17">
-        <v>672017</v>
+        <v>1125217</v>
       </c>
       <c r="F18" s="17">
-        <v>750640</v>
+        <v>1713892</v>
       </c>
       <c r="G18" s="17">
-        <v>866806</v>
+        <v>3877725</v>
       </c>
       <c r="H18" s="17">
-        <v>892982</v>
-      </c>
-      <c r="I18" s="17">
-        <v>874499</v>
-      </c>
-      <c r="J18" s="17">
-        <v>1125217</v>
-      </c>
-      <c r="K18" s="17">
-        <v>1713892</v>
-      </c>
-      <c r="L18" s="17">
-        <v>3877725</v>
-      </c>
-      <c r="M18" s="17">
         <v>5825411</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>0</v>
+        <v>6040</v>
       </c>
       <c r="E19" s="11">
-        <v>3761</v>
+        <v>7676</v>
       </c>
       <c r="F19" s="11">
-        <v>8987</v>
+        <v>11190</v>
       </c>
       <c r="G19" s="11">
-        <v>4512</v>
+        <v>12770</v>
       </c>
       <c r="H19" s="11">
-        <v>6063</v>
-      </c>
-      <c r="I19" s="11">
-        <v>6040</v>
-      </c>
-      <c r="J19" s="11">
-        <v>7676</v>
-      </c>
-      <c r="K19" s="11">
-        <v>11190</v>
-      </c>
-      <c r="L19" s="11">
-        <v>12770</v>
-      </c>
-      <c r="M19" s="11">
         <v>17159</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>15</v>
+        <v>379620</v>
       </c>
       <c r="E20" s="15">
-        <v>387749</v>
+        <v>394185</v>
       </c>
       <c r="F20" s="15">
-        <v>379625</v>
+        <v>396140</v>
       </c>
       <c r="G20" s="15">
-        <v>379625</v>
+        <v>385453</v>
       </c>
       <c r="H20" s="15">
-        <v>379620</v>
-      </c>
-      <c r="I20" s="15">
-        <v>379620</v>
-      </c>
-      <c r="J20" s="15">
-        <v>394185</v>
-      </c>
-      <c r="K20" s="15">
-        <v>396140</v>
-      </c>
-      <c r="L20" s="15">
         <v>385453</v>
       </c>
-      <c r="M20" s="15">
-        <v>385453</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>37</v>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
       </c>
       <c r="F21" s="11">
         <v>0</v>
@@ -1291,241 +1051,136 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>216465</v>
+        <v>232525</v>
       </c>
       <c r="E22" s="15">
-        <v>297784</v>
+        <v>377333</v>
       </c>
       <c r="F22" s="15">
-        <v>292753</v>
+        <v>699037</v>
       </c>
       <c r="G22" s="15">
-        <v>264667</v>
+        <v>1224487</v>
       </c>
       <c r="H22" s="15">
-        <v>244765</v>
-      </c>
-      <c r="I22" s="15">
-        <v>232525</v>
-      </c>
-      <c r="J22" s="15">
-        <v>377333</v>
-      </c>
-      <c r="K22" s="15">
-        <v>699037</v>
-      </c>
-      <c r="L22" s="15">
-        <v>1224487</v>
-      </c>
-      <c r="M22" s="15">
         <v>1717813</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>1317</v>
+        <v>1439</v>
       </c>
       <c r="E23" s="11">
-        <v>2271</v>
+        <v>1922</v>
       </c>
       <c r="F23" s="11">
-        <v>1964</v>
+        <v>3177</v>
       </c>
       <c r="G23" s="11">
-        <v>1787</v>
+        <v>40959</v>
       </c>
       <c r="H23" s="11">
-        <v>1643</v>
-      </c>
-      <c r="I23" s="11">
-        <v>1439</v>
-      </c>
-      <c r="J23" s="11">
-        <v>1922</v>
-      </c>
-      <c r="K23" s="11">
-        <v>3177</v>
-      </c>
-      <c r="L23" s="11">
-        <v>40959</v>
-      </c>
-      <c r="M23" s="11">
         <v>50021</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="15">
-        <v>0</v>
+      <c r="D24" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>4048</v>
+        <v>1370</v>
       </c>
       <c r="E25" s="11">
-        <v>150</v>
+        <v>1070</v>
       </c>
       <c r="F25" s="11">
-        <v>150</v>
+        <v>1070</v>
       </c>
       <c r="G25" s="11">
-        <v>1574</v>
+        <v>1070</v>
       </c>
       <c r="H25" s="11">
-        <v>1370</v>
-      </c>
-      <c r="I25" s="11">
-        <v>1370</v>
-      </c>
-      <c r="J25" s="11">
-        <v>1070</v>
-      </c>
-      <c r="K25" s="11">
-        <v>1070</v>
-      </c>
-      <c r="L25" s="11">
-        <v>1070</v>
-      </c>
-      <c r="M25" s="11">
         <v>921</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>221845</v>
+        <v>620994</v>
       </c>
       <c r="E26" s="17">
-        <v>691715</v>
+        <v>782186</v>
       </c>
       <c r="F26" s="17">
-        <v>683479</v>
+        <v>1110614</v>
       </c>
       <c r="G26" s="17">
-        <v>652165</v>
+        <v>1664739</v>
       </c>
       <c r="H26" s="17">
-        <v>633461</v>
-      </c>
-      <c r="I26" s="17">
-        <v>620994</v>
-      </c>
-      <c r="J26" s="17">
-        <v>782186</v>
-      </c>
-      <c r="K26" s="17">
-        <v>1110614</v>
-      </c>
-      <c r="L26" s="17">
-        <v>1664739</v>
-      </c>
-      <c r="M26" s="17">
         <v>2171367</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>663308</v>
+        <v>1495493</v>
       </c>
       <c r="E27" s="19">
-        <v>1363732</v>
+        <v>1907403</v>
       </c>
       <c r="F27" s="19">
-        <v>1434119</v>
+        <v>2824506</v>
       </c>
       <c r="G27" s="19">
-        <v>1518971</v>
+        <v>5542464</v>
       </c>
       <c r="H27" s="19">
-        <v>1526443</v>
-      </c>
-      <c r="I27" s="19">
-        <v>1495493</v>
-      </c>
-      <c r="J27" s="19">
-        <v>1907403</v>
-      </c>
-      <c r="K27" s="19">
-        <v>2824506</v>
-      </c>
-      <c r="L27" s="19">
-        <v>5542464</v>
-      </c>
-      <c r="M27" s="19">
         <v>7996778</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1533,267 +1188,157 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>115785</v>
+        <v>293162</v>
       </c>
       <c r="E29" s="15">
-        <v>248477</v>
+        <v>503612</v>
       </c>
       <c r="F29" s="15">
-        <v>274223</v>
+        <v>480087</v>
       </c>
       <c r="G29" s="15">
-        <v>375464</v>
+        <v>846490</v>
       </c>
       <c r="H29" s="15">
-        <v>302035</v>
-      </c>
-      <c r="I29" s="15">
-        <v>293162</v>
-      </c>
-      <c r="J29" s="15">
-        <v>503612</v>
-      </c>
-      <c r="K29" s="15">
-        <v>480087</v>
-      </c>
-      <c r="L29" s="15">
-        <v>846490</v>
-      </c>
-      <c r="M29" s="15">
         <v>2146704</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11">
-        <v>0</v>
+      <c r="D30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>12764</v>
+        <v>49725</v>
       </c>
       <c r="E31" s="15">
-        <v>26529</v>
+        <v>60625</v>
       </c>
       <c r="F31" s="15">
-        <v>9758</v>
+        <v>191022</v>
       </c>
       <c r="G31" s="15">
-        <v>40795</v>
+        <v>322989</v>
       </c>
       <c r="H31" s="15">
-        <v>54821</v>
-      </c>
-      <c r="I31" s="15">
-        <v>49725</v>
-      </c>
-      <c r="J31" s="15">
-        <v>60625</v>
-      </c>
-      <c r="K31" s="15">
-        <v>191022</v>
-      </c>
-      <c r="L31" s="15">
-        <v>322989</v>
-      </c>
-      <c r="M31" s="15">
         <v>155499</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>56304</v>
+        <v>36340</v>
       </c>
       <c r="E32" s="11">
-        <v>84656</v>
+        <v>77234</v>
       </c>
       <c r="F32" s="11">
-        <v>88736</v>
+        <v>152854</v>
       </c>
       <c r="G32" s="11">
-        <v>67420</v>
+        <v>203723</v>
       </c>
       <c r="H32" s="11">
-        <v>49540</v>
-      </c>
-      <c r="I32" s="11">
-        <v>36340</v>
-      </c>
-      <c r="J32" s="11">
-        <v>77234</v>
-      </c>
-      <c r="K32" s="11">
-        <v>152854</v>
-      </c>
-      <c r="L32" s="11">
-        <v>203723</v>
-      </c>
-      <c r="M32" s="11">
         <v>208746</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>2996</v>
+        <v>55116</v>
       </c>
       <c r="E33" s="15">
-        <v>43236</v>
+        <v>33548</v>
       </c>
       <c r="F33" s="15">
-        <v>102425</v>
+        <v>221999</v>
       </c>
       <c r="G33" s="15">
-        <v>116578</v>
+        <v>232853</v>
       </c>
       <c r="H33" s="15">
-        <v>79757</v>
-      </c>
-      <c r="I33" s="15">
-        <v>55116</v>
-      </c>
-      <c r="J33" s="15">
-        <v>33548</v>
-      </c>
-      <c r="K33" s="15">
-        <v>221999</v>
-      </c>
-      <c r="L33" s="15">
-        <v>232853</v>
-      </c>
-      <c r="M33" s="15">
         <v>126715</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>47376</v>
+        <v>126771</v>
       </c>
       <c r="E34" s="11">
-        <v>106950</v>
+        <v>29308</v>
       </c>
       <c r="F34" s="11">
-        <v>140997</v>
+        <v>43512</v>
       </c>
       <c r="G34" s="11">
-        <v>136553</v>
+        <v>33586</v>
       </c>
       <c r="H34" s="11">
-        <v>122646</v>
-      </c>
-      <c r="I34" s="11">
-        <v>126771</v>
-      </c>
-      <c r="J34" s="11">
-        <v>29308</v>
-      </c>
-      <c r="K34" s="11">
-        <v>43512</v>
-      </c>
-      <c r="L34" s="11">
-        <v>33586</v>
-      </c>
-      <c r="M34" s="11">
         <v>5131</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>37</v>
+      <c r="D35" s="15">
+        <v>43216</v>
+      </c>
+      <c r="E35" s="15">
+        <v>53675</v>
       </c>
       <c r="F35" s="15">
-        <v>76395</v>
+        <v>76180</v>
       </c>
       <c r="G35" s="15">
-        <v>61948</v>
+        <v>128762</v>
       </c>
       <c r="H35" s="15">
-        <v>65255</v>
-      </c>
-      <c r="I35" s="15">
-        <v>43216</v>
-      </c>
-      <c r="J35" s="15">
-        <v>53675</v>
-      </c>
-      <c r="K35" s="15">
-        <v>76180</v>
-      </c>
-      <c r="L35" s="15">
-        <v>128762</v>
-      </c>
-      <c r="M35" s="15">
         <v>118666</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1811,277 +1356,157 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>235225</v>
+        <v>604330</v>
       </c>
       <c r="E37" s="17">
-        <v>509848</v>
+        <v>758002</v>
       </c>
       <c r="F37" s="17">
-        <v>692534</v>
+        <v>1165654</v>
       </c>
       <c r="G37" s="17">
-        <v>798758</v>
+        <v>1768403</v>
       </c>
       <c r="H37" s="17">
-        <v>674054</v>
-      </c>
-      <c r="I37" s="17">
-        <v>604330</v>
-      </c>
-      <c r="J37" s="17">
-        <v>758002</v>
-      </c>
-      <c r="K37" s="17">
-        <v>1165654</v>
-      </c>
-      <c r="L37" s="17">
-        <v>1768403</v>
-      </c>
-      <c r="M37" s="17">
         <v>2761461</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>0</v>
+        <v>20876</v>
       </c>
       <c r="E38" s="11">
-        <v>142481</v>
+        <v>35475</v>
       </c>
       <c r="F38" s="11">
-        <v>52889</v>
+        <v>247126</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>280498</v>
       </c>
       <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>20876</v>
-      </c>
-      <c r="J38" s="11">
-        <v>35475</v>
-      </c>
-      <c r="K38" s="11">
-        <v>247126</v>
-      </c>
-      <c r="L38" s="11">
-        <v>280498</v>
-      </c>
-      <c r="M38" s="11">
         <v>454174</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15" t="s">
-        <v>37</v>
+      <c r="D39" s="15">
+        <v>0</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
-        <v>0</v>
-      </c>
-      <c r="I39" s="15">
-        <v>0</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>41572</v>
+        <v>103067</v>
       </c>
       <c r="E40" s="11">
-        <v>16176</v>
+        <v>73759</v>
       </c>
       <c r="F40" s="11">
-        <v>0</v>
+        <v>38717</v>
       </c>
       <c r="G40" s="11">
-        <v>3837</v>
+        <v>5131</v>
       </c>
       <c r="H40" s="11">
-        <v>57090</v>
-      </c>
-      <c r="I40" s="11">
-        <v>103067</v>
-      </c>
-      <c r="J40" s="11">
-        <v>73759</v>
-      </c>
-      <c r="K40" s="11">
-        <v>38717</v>
-      </c>
-      <c r="L40" s="11">
-        <v>5131</v>
-      </c>
-      <c r="M40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>8622</v>
+        <v>17173</v>
       </c>
       <c r="E41" s="15">
-        <v>10765</v>
+        <v>18933</v>
       </c>
       <c r="F41" s="15">
-        <v>11377</v>
+        <v>25486</v>
       </c>
       <c r="G41" s="15">
-        <v>12159</v>
+        <v>39934</v>
       </c>
       <c r="H41" s="15">
-        <v>13893</v>
-      </c>
-      <c r="I41" s="15">
-        <v>17173</v>
-      </c>
-      <c r="J41" s="15">
-        <v>18933</v>
-      </c>
-      <c r="K41" s="15">
-        <v>25486</v>
-      </c>
-      <c r="L41" s="15">
-        <v>39934</v>
-      </c>
-      <c r="M41" s="15">
         <v>50893</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>50194</v>
+        <v>141116</v>
       </c>
       <c r="E42" s="19">
-        <v>169422</v>
+        <v>128167</v>
       </c>
       <c r="F42" s="19">
-        <v>64266</v>
+        <v>311329</v>
       </c>
       <c r="G42" s="19">
-        <v>15996</v>
+        <v>325563</v>
       </c>
       <c r="H42" s="19">
-        <v>70983</v>
-      </c>
-      <c r="I42" s="19">
-        <v>141116</v>
-      </c>
-      <c r="J42" s="19">
-        <v>128167</v>
-      </c>
-      <c r="K42" s="19">
-        <v>311329</v>
-      </c>
-      <c r="L42" s="19">
-        <v>325563</v>
-      </c>
-      <c r="M42" s="19">
         <v>505067</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>285419</v>
+        <v>745446</v>
       </c>
       <c r="E43" s="17">
-        <v>679270</v>
+        <v>886169</v>
       </c>
       <c r="F43" s="17">
-        <v>756800</v>
+        <v>1476983</v>
       </c>
       <c r="G43" s="17">
-        <v>814754</v>
+        <v>2093966</v>
       </c>
       <c r="H43" s="17">
-        <v>745037</v>
-      </c>
-      <c r="I43" s="17">
-        <v>745446</v>
-      </c>
-      <c r="J43" s="17">
-        <v>886169</v>
-      </c>
-      <c r="K43" s="17">
-        <v>1476983</v>
-      </c>
-      <c r="L43" s="17">
-        <v>2093966</v>
-      </c>
-      <c r="M43" s="17">
         <v>3266528</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2089,51 +1514,31 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>151875</v>
+        <v>529550</v>
       </c>
       <c r="E45" s="15">
-        <v>151875</v>
+        <v>529550</v>
       </c>
       <c r="F45" s="15">
-        <v>210000</v>
+        <v>529550</v>
       </c>
       <c r="G45" s="15">
-        <v>350000</v>
+        <v>529550</v>
       </c>
       <c r="H45" s="15">
         <v>529550</v>
       </c>
-      <c r="I45" s="15">
-        <v>529550</v>
-      </c>
-      <c r="J45" s="15">
-        <v>529550</v>
-      </c>
-      <c r="K45" s="15">
-        <v>529550</v>
-      </c>
-      <c r="L45" s="15">
-        <v>529550</v>
-      </c>
-      <c r="M45" s="15">
-        <v>529550</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2151,169 +1556,94 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
         <v>0</v>
       </c>
       <c r="E47" s="15">
-        <v>58125</v>
+        <v>0</v>
       </c>
       <c r="F47" s="15">
-        <v>132617</v>
+        <v>0</v>
       </c>
       <c r="G47" s="15">
-        <v>150261</v>
+        <v>0</v>
       </c>
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>37</v>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
       </c>
       <c r="F48" s="11">
         <v>0</v>
       </c>
       <c r="G48" s="11">
-        <v>0</v>
+        <v>-195471</v>
       </c>
       <c r="H48" s="11">
         <v>0</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>-195471</v>
-      </c>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
+        <v>30</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
         <v>37092</v>
       </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>15188</v>
+        <v>42815</v>
       </c>
       <c r="E50" s="11">
-        <v>15188</v>
+        <v>52955</v>
       </c>
       <c r="F50" s="11">
-        <v>21000</v>
+        <v>52955</v>
       </c>
       <c r="G50" s="11">
-        <v>30738</v>
+        <v>52955</v>
       </c>
       <c r="H50" s="11">
-        <v>38558</v>
-      </c>
-      <c r="I50" s="11">
-        <v>42815</v>
-      </c>
-      <c r="J50" s="11">
         <v>52955</v>
       </c>
-      <c r="K50" s="11">
-        <v>52955</v>
-      </c>
-      <c r="L50" s="11">
-        <v>52955</v>
-      </c>
-      <c r="M50" s="11">
-        <v>52955</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2331,61 +1661,31 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-      <c r="I51" s="15">
-        <v>0</v>
-      </c>
-      <c r="J51" s="15">
-        <v>0</v>
-      </c>
-      <c r="K51" s="15">
-        <v>0</v>
-      </c>
-      <c r="L51" s="15">
-        <v>0</v>
-      </c>
-      <c r="M51" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11">
         <v>0</v>
       </c>
-      <c r="E52" s="11">
-        <v>0</v>
-      </c>
-      <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="11">
-        <v>0</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2403,68 +1703,38 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <v>0</v>
-      </c>
-      <c r="M53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
         <v>0</v>
       </c>
-      <c r="E54" s="11">
-        <v>0</v>
-      </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>37</v>
+      <c r="D55" s="15">
+        <v>0</v>
+      </c>
+      <c r="E55" s="15">
+        <v>0</v>
       </c>
       <c r="F55" s="15">
         <v>0</v>
@@ -2475,131 +1745,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>210826</v>
+        <v>177682</v>
       </c>
       <c r="E56" s="11">
-        <v>459274</v>
+        <v>438729</v>
       </c>
       <c r="F56" s="11">
-        <v>313702</v>
+        <v>765018</v>
       </c>
       <c r="G56" s="11">
-        <v>173218</v>
+        <v>3024372</v>
       </c>
       <c r="H56" s="11">
-        <v>213298</v>
-      </c>
-      <c r="I56" s="11">
-        <v>177682</v>
-      </c>
-      <c r="J56" s="11">
-        <v>438729</v>
-      </c>
-      <c r="K56" s="11">
-        <v>765018</v>
-      </c>
-      <c r="L56" s="11">
-        <v>3024372</v>
-      </c>
-      <c r="M56" s="11">
         <v>4147745</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>377889</v>
+        <v>750047</v>
       </c>
       <c r="E57" s="17">
-        <v>684462</v>
+        <v>1021234</v>
       </c>
       <c r="F57" s="17">
-        <v>677319</v>
+        <v>1347523</v>
       </c>
       <c r="G57" s="17">
-        <v>704217</v>
+        <v>3448498</v>
       </c>
       <c r="H57" s="17">
-        <v>781406</v>
-      </c>
-      <c r="I57" s="17">
-        <v>750047</v>
-      </c>
-      <c r="J57" s="17">
-        <v>1021234</v>
-      </c>
-      <c r="K57" s="17">
-        <v>1347523</v>
-      </c>
-      <c r="L57" s="17">
-        <v>3448498</v>
-      </c>
-      <c r="M57" s="17">
         <v>4730250</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>663308</v>
+        <v>1495493</v>
       </c>
       <c r="E58" s="19">
-        <v>1363732</v>
+        <v>1907403</v>
       </c>
       <c r="F58" s="19">
-        <v>1434119</v>
+        <v>2824506</v>
       </c>
       <c r="G58" s="19">
-        <v>1518971</v>
+        <v>5542464</v>
       </c>
       <c r="H58" s="19">
-        <v>1526443</v>
-      </c>
-      <c r="I58" s="19">
-        <v>1495493</v>
-      </c>
-      <c r="J58" s="19">
-        <v>1907403</v>
-      </c>
-      <c r="K58" s="19">
-        <v>2824506</v>
-      </c>
-      <c r="L58" s="19">
-        <v>5542464</v>
-      </c>
-      <c r="M58" s="19">
         <v>7996778</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2607,11 +1817,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/kashi/kesave/balancesheet/yearly.xlsx
+++ b/database/industries/kashi/kesave/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576BC324-822B-4808-8415-F0F872F8DD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBC171F-188D-4F54-B9B9-2D5475B7B55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -702,14 +702,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -831,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -863,7 +863,7 @@
         <v>292326</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -884,7 +884,7 @@
         <v>327044</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
@@ -905,7 +905,7 @@
         <v>2167830</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -926,7 +926,7 @@
         <v>2949582</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -947,7 +947,7 @@
         <v>88629</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
@@ -989,7 +989,7 @@
         <v>5825411</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>17159</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>385453</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>1717813</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>50021</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>32</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>2171367</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>33</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>7996778</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>34</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>2146704</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>36</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>155499</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>38</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>208746</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>126715</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>40</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>5131</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>118666</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>42</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>43</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>2761461</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>454174</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>50893</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>48</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>505067</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>49</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>3266528</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>50</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>529550</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>52955</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>4147745</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>4730250</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>64</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>7996778</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/kashi/kesave/balancesheet/yearly.xlsx
+++ b/database/industries/kashi/kesave/balancesheet/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\kashi\kesave\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBC171F-188D-4F54-B9B9-2D5475B7B55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E27254-E46F-4E7D-81B1-AB293051832F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="1128" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-04-19 (9)</t>
-  </si>
-  <si>
     <t>1399-07-02 (10)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-04-26 (11)</t>
   </si>
   <si>
-    <t>1401-10-28 (6)</t>
+    <t>1402-03-21 (8)</t>
+  </si>
+  <si>
+    <t>1402-03-21 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -848,19 +848,19 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>38675</v>
+        <v>24018</v>
       </c>
       <c r="E12" s="15">
-        <v>24018</v>
+        <v>283532</v>
       </c>
       <c r="F12" s="15">
-        <v>283532</v>
+        <v>568772</v>
       </c>
       <c r="G12" s="15">
-        <v>568772</v>
+        <v>292326</v>
       </c>
       <c r="H12" s="15">
-        <v>292326</v>
+        <v>1234085</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -875,13 +875,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
+        <v>30288</v>
       </c>
       <c r="G13" s="11">
-        <v>30288</v>
+        <v>327044</v>
       </c>
       <c r="H13" s="11">
-        <v>327044</v>
+        <v>419828</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -890,19 +890,19 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>293120</v>
+        <v>377995</v>
       </c>
       <c r="E14" s="15">
-        <v>377995</v>
+        <v>422223</v>
       </c>
       <c r="F14" s="15">
-        <v>422223</v>
+        <v>957350</v>
       </c>
       <c r="G14" s="15">
-        <v>957350</v>
+        <v>2167830</v>
       </c>
       <c r="H14" s="15">
-        <v>2167830</v>
+        <v>3133567</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -911,19 +911,19 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>514052</v>
+        <v>625963</v>
       </c>
       <c r="E15" s="11">
-        <v>625963</v>
+        <v>913969</v>
       </c>
       <c r="F15" s="11">
-        <v>913969</v>
+        <v>2138879</v>
       </c>
       <c r="G15" s="11">
-        <v>2138879</v>
+        <v>2949582</v>
       </c>
       <c r="H15" s="11">
-        <v>2949582</v>
+        <v>4347042</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -932,19 +932,19 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>28652</v>
+        <v>97241</v>
       </c>
       <c r="E16" s="15">
-        <v>97241</v>
+        <v>94168</v>
       </c>
       <c r="F16" s="15">
-        <v>94168</v>
+        <v>182436</v>
       </c>
       <c r="G16" s="15">
-        <v>182436</v>
+        <v>88629</v>
       </c>
       <c r="H16" s="15">
-        <v>88629</v>
+        <v>303330</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -974,19 +974,19 @@
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>874499</v>
+        <v>1125217</v>
       </c>
       <c r="E18" s="17">
-        <v>1125217</v>
+        <v>1713892</v>
       </c>
       <c r="F18" s="17">
-        <v>1713892</v>
+        <v>3877725</v>
       </c>
       <c r="G18" s="17">
-        <v>3877725</v>
+        <v>5825411</v>
       </c>
       <c r="H18" s="17">
-        <v>5825411</v>
+        <v>9437852</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -995,19 +995,19 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>6040</v>
+        <v>7676</v>
       </c>
       <c r="E19" s="11">
-        <v>7676</v>
+        <v>11190</v>
       </c>
       <c r="F19" s="11">
-        <v>11190</v>
+        <v>12770</v>
       </c>
       <c r="G19" s="11">
-        <v>12770</v>
+        <v>17159</v>
       </c>
       <c r="H19" s="11">
-        <v>17159</v>
+        <v>22301</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -1016,13 +1016,13 @@
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>379620</v>
+        <v>394185</v>
       </c>
       <c r="E20" s="15">
-        <v>394185</v>
+        <v>396140</v>
       </c>
       <c r="F20" s="15">
-        <v>396140</v>
+        <v>385453</v>
       </c>
       <c r="G20" s="15">
         <v>385453</v>
@@ -1058,19 +1058,19 @@
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>232525</v>
+        <v>377333</v>
       </c>
       <c r="E22" s="15">
-        <v>377333</v>
+        <v>699037</v>
       </c>
       <c r="F22" s="15">
-        <v>699037</v>
+        <v>1224487</v>
       </c>
       <c r="G22" s="15">
-        <v>1224487</v>
+        <v>1717813</v>
       </c>
       <c r="H22" s="15">
-        <v>1717813</v>
+        <v>2318854</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -1079,19 +1079,19 @@
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>1439</v>
+        <v>1922</v>
       </c>
       <c r="E23" s="11">
-        <v>1922</v>
+        <v>3177</v>
       </c>
       <c r="F23" s="11">
-        <v>3177</v>
+        <v>40959</v>
       </c>
       <c r="G23" s="11">
-        <v>40959</v>
+        <v>50021</v>
       </c>
       <c r="H23" s="11">
-        <v>50021</v>
+        <v>51136</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>1370</v>
+        <v>1070</v>
       </c>
       <c r="E25" s="11">
         <v>1070</v>
@@ -1130,10 +1130,10 @@
         <v>1070</v>
       </c>
       <c r="G25" s="11">
-        <v>1070</v>
+        <v>921</v>
       </c>
       <c r="H25" s="11">
-        <v>921</v>
+        <v>8465</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -1142,19 +1142,19 @@
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>620994</v>
+        <v>782186</v>
       </c>
       <c r="E26" s="17">
-        <v>782186</v>
+        <v>1110614</v>
       </c>
       <c r="F26" s="17">
-        <v>1110614</v>
+        <v>1664739</v>
       </c>
       <c r="G26" s="17">
-        <v>1664739</v>
+        <v>2171367</v>
       </c>
       <c r="H26" s="17">
-        <v>2171367</v>
+        <v>2786209</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
@@ -1163,19 +1163,19 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>1495493</v>
+        <v>1907403</v>
       </c>
       <c r="E27" s="19">
-        <v>1907403</v>
+        <v>2824506</v>
       </c>
       <c r="F27" s="19">
-        <v>2824506</v>
+        <v>5542464</v>
       </c>
       <c r="G27" s="19">
-        <v>5542464</v>
+        <v>7996778</v>
       </c>
       <c r="H27" s="19">
-        <v>7996778</v>
+        <v>12224061</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -1195,19 +1195,19 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>293162</v>
+        <v>503612</v>
       </c>
       <c r="E29" s="15">
-        <v>503612</v>
+        <v>480087</v>
       </c>
       <c r="F29" s="15">
-        <v>480087</v>
+        <v>846490</v>
       </c>
       <c r="G29" s="15">
-        <v>846490</v>
+        <v>2146704</v>
       </c>
       <c r="H29" s="15">
-        <v>2146704</v>
+        <v>3358333</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -1237,19 +1237,19 @@
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>49725</v>
+        <v>60625</v>
       </c>
       <c r="E31" s="15">
-        <v>60625</v>
+        <v>191022</v>
       </c>
       <c r="F31" s="15">
-        <v>191022</v>
+        <v>322989</v>
       </c>
       <c r="G31" s="15">
-        <v>322989</v>
+        <v>155499</v>
       </c>
       <c r="H31" s="15">
-        <v>155499</v>
+        <v>265223</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -1258,19 +1258,19 @@
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>36340</v>
+        <v>77234</v>
       </c>
       <c r="E32" s="11">
-        <v>77234</v>
+        <v>152854</v>
       </c>
       <c r="F32" s="11">
-        <v>152854</v>
+        <v>203723</v>
       </c>
       <c r="G32" s="11">
-        <v>203723</v>
+        <v>208746</v>
       </c>
       <c r="H32" s="11">
-        <v>208746</v>
+        <v>285044</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
@@ -1279,19 +1279,19 @@
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>55116</v>
+        <v>33548</v>
       </c>
       <c r="E33" s="15">
-        <v>33548</v>
+        <v>221999</v>
       </c>
       <c r="F33" s="15">
-        <v>221999</v>
+        <v>232853</v>
       </c>
       <c r="G33" s="15">
-        <v>232853</v>
+        <v>126715</v>
       </c>
       <c r="H33" s="15">
-        <v>126715</v>
+        <v>37418</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
@@ -1300,19 +1300,19 @@
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>126771</v>
+        <v>29308</v>
       </c>
       <c r="E34" s="11">
-        <v>29308</v>
+        <v>43512</v>
       </c>
       <c r="F34" s="11">
-        <v>43512</v>
+        <v>33586</v>
       </c>
       <c r="G34" s="11">
-        <v>33586</v>
+        <v>5131</v>
       </c>
       <c r="H34" s="11">
-        <v>5131</v>
+        <v>845490</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
@@ -1321,19 +1321,19 @@
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>43216</v>
+        <v>53675</v>
       </c>
       <c r="E35" s="15">
-        <v>53675</v>
+        <v>76180</v>
       </c>
       <c r="F35" s="15">
-        <v>76180</v>
+        <v>128762</v>
       </c>
       <c r="G35" s="15">
-        <v>128762</v>
+        <v>118666</v>
       </c>
       <c r="H35" s="15">
-        <v>118666</v>
+        <v>286652</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -1363,19 +1363,19 @@
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>604330</v>
+        <v>758002</v>
       </c>
       <c r="E37" s="17">
-        <v>758002</v>
+        <v>1165654</v>
       </c>
       <c r="F37" s="17">
-        <v>1165654</v>
+        <v>1768403</v>
       </c>
       <c r="G37" s="17">
-        <v>1768403</v>
+        <v>2761461</v>
       </c>
       <c r="H37" s="17">
-        <v>2761461</v>
+        <v>5078160</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
@@ -1384,19 +1384,19 @@
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>20876</v>
+        <v>35475</v>
       </c>
       <c r="E38" s="11">
-        <v>35475</v>
+        <v>247126</v>
       </c>
       <c r="F38" s="11">
-        <v>247126</v>
+        <v>280498</v>
       </c>
       <c r="G38" s="11">
-        <v>280498</v>
+        <v>454174</v>
       </c>
       <c r="H38" s="11">
-        <v>454174</v>
+        <v>331748</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
@@ -1404,8 +1404,8 @@
         <v>45</v>
       </c>
       <c r="C39" s="15"/>
-      <c r="D39" s="15">
-        <v>0</v>
+      <c r="D39" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>30</v>
@@ -1426,16 +1426,16 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>103067</v>
+        <v>73759</v>
       </c>
       <c r="E40" s="11">
-        <v>73759</v>
+        <v>38717</v>
       </c>
       <c r="F40" s="11">
-        <v>38717</v>
+        <v>5131</v>
       </c>
       <c r="G40" s="11">
-        <v>5131</v>
+        <v>0</v>
       </c>
       <c r="H40" s="11">
         <v>0</v>
@@ -1447,19 +1447,19 @@
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>17173</v>
+        <v>18933</v>
       </c>
       <c r="E41" s="15">
-        <v>18933</v>
+        <v>25486</v>
       </c>
       <c r="F41" s="15">
-        <v>25486</v>
+        <v>39934</v>
       </c>
       <c r="G41" s="15">
-        <v>39934</v>
+        <v>50893</v>
       </c>
       <c r="H41" s="15">
-        <v>50893</v>
+        <v>77149</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
@@ -1468,19 +1468,19 @@
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>141116</v>
+        <v>128167</v>
       </c>
       <c r="E42" s="19">
-        <v>128167</v>
+        <v>311329</v>
       </c>
       <c r="F42" s="19">
-        <v>311329</v>
+        <v>325563</v>
       </c>
       <c r="G42" s="19">
-        <v>325563</v>
+        <v>505067</v>
       </c>
       <c r="H42" s="19">
-        <v>505067</v>
+        <v>408897</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
@@ -1489,19 +1489,19 @@
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>745446</v>
+        <v>886169</v>
       </c>
       <c r="E43" s="17">
-        <v>886169</v>
+        <v>1476983</v>
       </c>
       <c r="F43" s="17">
-        <v>1476983</v>
+        <v>2093966</v>
       </c>
       <c r="G43" s="17">
-        <v>2093966</v>
+        <v>3266528</v>
       </c>
       <c r="H43" s="17">
-        <v>3266528</v>
+        <v>5487057</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="F48" s="11">
-        <v>0</v>
+        <v>-195471</v>
       </c>
       <c r="G48" s="11">
-        <v>-195471</v>
+        <v>0</v>
       </c>
       <c r="H48" s="11">
         <v>0</v>
@@ -1604,17 +1604,17 @@
         <v>55</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>30</v>
+      <c r="D49" s="15">
+        <v>0</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
       </c>
       <c r="F49" s="15">
-        <v>0</v>
+        <v>37092</v>
       </c>
       <c r="G49" s="15">
-        <v>37092</v>
+        <v>0</v>
       </c>
       <c r="H49" s="15">
         <v>0</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>42815</v>
+        <v>52955</v>
       </c>
       <c r="E50" s="11">
         <v>52955</v>
@@ -1667,8 +1667,8 @@
         <v>58</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="11">
-        <v>0</v>
+      <c r="D52" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>30</v>
@@ -1709,8 +1709,8 @@
         <v>60</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="11">
-        <v>0</v>
+      <c r="D54" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>30</v>
@@ -1752,19 +1752,19 @@
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>177682</v>
+        <v>438729</v>
       </c>
       <c r="E56" s="11">
-        <v>438729</v>
+        <v>765018</v>
       </c>
       <c r="F56" s="11">
-        <v>765018</v>
+        <v>3024372</v>
       </c>
       <c r="G56" s="11">
-        <v>3024372</v>
+        <v>4147745</v>
       </c>
       <c r="H56" s="11">
-        <v>4147745</v>
+        <v>6154499</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
@@ -1773,19 +1773,19 @@
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>750047</v>
+        <v>1021234</v>
       </c>
       <c r="E57" s="17">
-        <v>1021234</v>
+        <v>1347523</v>
       </c>
       <c r="F57" s="17">
-        <v>1347523</v>
+        <v>3448498</v>
       </c>
       <c r="G57" s="17">
-        <v>3448498</v>
+        <v>4730250</v>
       </c>
       <c r="H57" s="17">
-        <v>4730250</v>
+        <v>6737004</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>1495493</v>
+        <v>1907403</v>
       </c>
       <c r="E58" s="19">
-        <v>1907403</v>
+        <v>2824506</v>
       </c>
       <c r="F58" s="19">
-        <v>2824506</v>
+        <v>5542464</v>
       </c>
       <c r="G58" s="19">
-        <v>5542464</v>
+        <v>7996778</v>
       </c>
       <c r="H58" s="19">
-        <v>7996778</v>
+        <v>12224061</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
